--- a/biology/Zoologie/Blattellidae/Blattellidae.xlsx
+++ b/biology/Zoologie/Blattellidae/Blattellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blattellidae sont une famille de cafards (ou blattes). La moitié des espèces de blattes y sont classées, plus de 2 300 sur 4 600.
 Synonyme :
@@ -513,9 +525,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Blattodea Species File (25 avril 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Blattodea Species File (25 avril 2010) :
 Anaplectinae Walker, 1868
 Anaplecta Burmeister, 1838
 Maraca Hebard, 1926
@@ -772,7 +786,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karny, 1908 : Orthoptera und Blattaeformia. Die zoologische Reise des naturwissenschaftlichen Vereines nach Dalmatien im April 1906, Mitt. Naturw. Ver. Univ. Wien, vol. 6, p. 101-113.</t>
         </is>
